--- a/output/assetClass_AggResults.xlsx
+++ b/output/assetClass_AggResults.xlsx
@@ -118,7 +118,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +129,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,12 +162,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -2232,7 +2240,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:L15"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2255,26 +2263,26 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -2309,34 +2317,34 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>30.924502272538099</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>53.806048467707299</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>47.1124587892295</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>55.546441470507503</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>9.1297719134254702</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>49.125919926341702</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>8.9873636324966402</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>15.7120313117523</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>47.897110782260803</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>48.180204501936501</v>
       </c>
     </row>
@@ -2344,34 +2352,34 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>32.271312245156601</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>14.1833586229725</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>2.1012848256693299</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>7.3924377112236597</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>21.440109527821701</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>12.4624466803771</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>14.0841914596151</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>13.413691862409699</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>10.0734144948512</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>10.0650349027714</v>
       </c>
     </row>
@@ -2379,34 +2387,34 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>6.3846923461730806E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>9.1184592296148004E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>7.0879439719859896E-2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>9.0986493246623307E-2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>4.8692346173086501E-2</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>8.91540770385192E-2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>4.0867433716858401E-2</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>4.8543771885942902E-2</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>8.7866433216608295E-2</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>8.8163581790895396E-2</v>
       </c>
     </row>
@@ -2417,34 +2425,34 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>6.3846923461730806E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>9.1184592296148004E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>7.0879439719859896E-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>9.0986493246623307E-2</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>4.8692346173086501E-2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>8.91540770385192E-2</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>4.0867433716858401E-2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>4.8543771885942902E-2</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>8.7866433216608295E-2</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>8.8163581790895396E-2</v>
       </c>
     </row>
@@ -2452,34 +2460,34 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>6.3846923461730806E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>9.1184592296148004E-2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>7.0879439719859896E-2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>9.0986493246623307E-2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>4.8692346173086501E-2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>8.91540770385192E-2</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>4.0867433716858401E-2</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>4.8543771885942902E-2</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>8.7866433216608295E-2</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>8.8163581790895396E-2</v>
       </c>
     </row>
@@ -2487,34 +2495,34 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>6.3776273227227398E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>10.986903289068399</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>5.0620248953201497</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>13.9464939649871</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>17.9275676375843</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>19.083303656722801</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>3.2540136907102402</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>5.1925282851861096</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>16.291777186346799</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>16.327610037818101</v>
       </c>
     </row>
@@ -2525,34 +2533,34 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.39579190042360202</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>11.934728139511201</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>16.391032890481199</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>13.828160620165001</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>4.8820055735684501E-2</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>8.2149445439619306</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>14.4192626328858</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>14.0798891109369</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>13.3405314534995</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <v>13.3262416029966</v>
       </c>
     </row>
@@ -2563,34 +2571,34 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>36.153076538269097</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>8.8154077038519194</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>29.120560280140001</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>9.0135067533766797</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>51.307653826913402</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <v>10.845922961480699</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>59.1325662831415</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>51.456228114056998</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>12.133566783391601</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>11.836418209104499</v>
       </c>
     </row>
@@ -2598,34 +2606,34 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>4.5924840449400097</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>4.1380410541569903</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>4.1252336881281098</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>4.0236149361786699</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>5.2542902442562101</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>4.30113165949696</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>4.2401157000915699</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>4.2118465365997499</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>3.9476304121976198</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>3.9475365856684101</v>
       </c>
     </row>
@@ -2633,34 +2641,34 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>36.153076538269097</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>13.4071940949749</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>29.120560280140001</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>12.1317266808145</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>51.307653826913402</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3">
         <v>15.9177756994759</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>59.1325662831415</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>51.456228114056998</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>12.133566783391601</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <v>11.836418209104499</v>
       </c>
     </row>
@@ -2668,34 +2676,34 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>4.3234539511319703</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>3.9389282857419001</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>3.9534201909314102</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>3.8640365765681302</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>4.82740479341299</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="3">
         <v>4.0555000216470303</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>3.9796229382131898</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>4.0201045832983402</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>3.8110822397413302</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>3.8110057897745602</v>
       </c>
     </row>
@@ -2703,34 +2711,34 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>0.62023968230453497</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>1.5701302514447899</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>0.18667978417261599</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>0.71357461401157996</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>1.22262460136073</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <v>2.8196829835142001</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>0.29397251317615503</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>0.413055517525307</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>1.98675938444248E-2</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>3.0442124052498701E-2</v>
       </c>
     </row>
@@ -2738,34 +2746,34 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>-12.4948911045431</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>-5.4324827779514999</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3">
         <v>-30.138800838414099</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>0</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>-0.18758336674755599</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <v>0</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="1">
         <v>-1.31598776692554E-3</v>
       </c>
     </row>
@@ -2788,7 +2796,7 @@
   <dimension ref="B1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G3" sqref="G3:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2801,26 +2809,26 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -2858,67 +2866,67 @@
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="e">
+      <c r="C3" s="1" t="e">
         <f ca="1">_xludf.sum(Sheet1!C3:C4)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>53.806048467707299</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>47.1124587892295</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>55.546441470507503</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>9.1297719134254702</v>
       </c>
-      <c r="H3" s="2">
-        <v>49.125919926341702</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="H3" s="1">
+        <v>39.885680948410197</v>
+      </c>
+      <c r="I3" s="1">
         <v>8.9873636324966402</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>15.7120313117523</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>47.897110782260803</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>48.180204501936501</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>32.271312245156601</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>14.1833586229725</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>2.1012848256693299</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>7.3924377112236597</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>21.440109527821701</v>
       </c>
-      <c r="H4" s="2">
-        <v>12.4624466803771</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="H4" s="1">
+        <v>14.9858999015682</v>
+      </c>
+      <c r="I4" s="1">
         <v>14.0841914596151</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>13.413691862409699</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>10.0734144948512</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>10.0650349027714</v>
       </c>
     </row>
@@ -2926,130 +2934,130 @@
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>6.3846923461730806E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>9.1184592296148004E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>7.0879439719859896E-2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>9.0986493246623307E-2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>4.8692346173086501E-2</v>
       </c>
-      <c r="H5" s="2">
-        <v>8.91540770385192E-2</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="H5" s="1">
+        <v>7.9447223611805895E-2</v>
+      </c>
+      <c r="I5" s="1">
         <v>4.0867433716858401E-2</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>4.8543771885942902E-2</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>8.7866433216608295E-2</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>8.8163581790895396E-2</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>6.3846923461730806E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>9.1184592296148004E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>7.0879439719859896E-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>9.0986493246623307E-2</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>4.8692346173086501E-2</v>
       </c>
-      <c r="H6" s="2">
-        <v>8.91540770385192E-2</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="H6" s="1">
+        <v>7.9447223611805895E-2</v>
+      </c>
+      <c r="I6" s="1">
         <v>4.0867433716858401E-2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>4.8543771885942902E-2</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>8.7866433216608295E-2</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>8.8163581790895396E-2</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>6.3846923461730806E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>9.1184592296148004E-2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>7.0879439719859896E-2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>9.0986493246623307E-2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>4.8692346173086501E-2</v>
       </c>
-      <c r="H7" s="2">
-        <v>8.91540770385192E-2</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="H7" s="1">
+        <v>7.9447223611805895E-2</v>
+      </c>
+      <c r="I7" s="1">
         <v>4.0867433716858401E-2</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>4.8543771885942902E-2</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>8.7866433216608295E-2</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>8.8163581790895396E-2</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>6.3776273227227398E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>10.986903289068399</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>5.0620248953201497</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>13.9464939649871</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>17.9275676375843</v>
       </c>
-      <c r="H8" s="2">
-        <v>19.083303656722801</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="H8" s="1">
+        <v>20.2673010048434</v>
+      </c>
+      <c r="I8" s="1">
         <v>3.2540136907102402</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>5.1925282851861096</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>16.291777186346799</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>16.327610037818101</v>
       </c>
     </row>
@@ -3057,34 +3065,34 @@
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.39579190042360202</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>11.934728139511201</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>16.391032890481199</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>13.828160620165001</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>4.8820055735684501E-2</v>
       </c>
-      <c r="H9" s="2">
-        <v>8.2149445439619306</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="H9" s="1">
+        <v>4.0700000861485197</v>
+      </c>
+      <c r="I9" s="1">
         <v>14.4192626328858</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>14.0798891109369</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>13.3405314534995</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <v>13.3262416029966</v>
       </c>
     </row>
@@ -3092,34 +3100,34 @@
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>36.153076538269097</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>8.8154077038519194</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>29.120560280140001</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>9.0135067533766797</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>51.307653826913402</v>
       </c>
-      <c r="H10" s="2">
-        <v>10.845922961480699</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="H10" s="1">
+        <v>20.552776388194001</v>
+      </c>
+      <c r="I10" s="1">
         <v>59.1325662831415</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>51.456228114056998</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>12.133566783391601</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>11.836418209104499</v>
       </c>
     </row>
@@ -3127,34 +3135,34 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>4.5924840449400097</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>4.1380410541569903</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>4.1252336881281098</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>4.0236149361786699</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>5.2542902442562101</v>
       </c>
-      <c r="H11" s="2">
-        <v>4.30113165949696</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="H11" s="1">
+        <v>4.5976000156813797</v>
+      </c>
+      <c r="I11" s="1">
         <v>4.2401157000915699</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>4.2118465365997499</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>3.9476304121976198</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>3.9475365856684101</v>
       </c>
     </row>
@@ -3162,34 +3170,34 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>36.153076538269097</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>13.4071940949749</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>29.120560280140001</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>12.1317266808145</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>51.307653826913402</v>
       </c>
-      <c r="H12" s="2">
-        <v>15.9177756994759</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="H12" s="1">
+        <v>24.5977443634184</v>
+      </c>
+      <c r="I12" s="1">
         <v>59.1325662831415</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>51.456228114056998</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>12.133566783391601</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <v>11.836418209104499</v>
       </c>
     </row>
@@ -3197,34 +3205,34 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>4.3234539511319703</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>3.9389282857419001</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>3.9534201909314102</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>3.8640365765681302</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>4.82740479341299</v>
       </c>
-      <c r="H13" s="2">
-        <v>4.0555000216470303</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="H13" s="1">
+        <v>4.3054907503684596</v>
+      </c>
+      <c r="I13" s="1">
         <v>3.9796229382131898</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>4.0201045832983402</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>3.8110822397413302</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>3.8110057897745602</v>
       </c>
     </row>
@@ -3232,34 +3240,34 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>0.62023968230453497</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>1.5701302514447899</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>0.18667978417261599</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>0.71357461401157996</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>1.22262460136073</v>
       </c>
-      <c r="H14" s="2">
-        <v>2.8196829835142001</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="H14" s="1">
+        <v>3.0695138833717501</v>
+      </c>
+      <c r="I14" s="1">
         <v>0.29397251317615503</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>0.413055517525307</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>1.98675938444248E-2</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>3.0442124052498701E-2</v>
       </c>
     </row>
@@ -3267,34 +3275,34 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>-12.4948911045431</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>-5.4324827779514999</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="2">
-        <v>-30.138800838414099</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="H15" s="1">
+        <v>-16.6757120840937</v>
+      </c>
+      <c r="I15" s="1">
         <v>0</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>-0.18758336674755599</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <v>0</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="1">
         <v>-1.31598776692554E-3</v>
       </c>
     </row>
@@ -3311,21 +3319,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"blankspreadsheet","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"blankspreadsheet","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46E56178-A09E-4724-8840-5C719A4A3FCD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58FDB258-840B-4189-80A1-0F857939EFFB}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58FDB258-840B-4189-80A1-0F857939EFFB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46E56178-A09E-4724-8840-5C719A4A3FCD}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>